--- a/assets/dataFiles/Two Days Tour Packages.xlsx
+++ b/assets/dataFiles/Two Days Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26672CAE-6380-4C01-8933-A49524755978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB46C8-688A-414D-AC82-0607B1FC09AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{38D13602-C2F3-41AE-BA34-3732A4938356}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{38D13602-C2F3-41AE-BA34-3732A4938356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -120,39 +120,39 @@
     <t>20+1</t>
   </si>
   <si>
+    <t>COIMBATORE - MUNNAR - COIMBATORE</t>
+  </si>
+  <si>
+    <t>OOTY - MYSORE - OOTY</t>
+  </si>
+  <si>
+    <t>OOTY- WAYNAD - OOTY</t>
+  </si>
+  <si>
+    <t>MYSORE - OOTY - MYSORE</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden, Ketty Valley view (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train.&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Echo Point, Elephant Lake, Rose Garden, Mattupetty Dam, Chinnar Wildlife Sanctuary, Top Station, Tata Tea Museum, Rajamalai WildLife Sanctuary, Power House Falls&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palace&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Ananthanatha Swami temple, Muthanga Wildlife Sanctuary, Banasura dam, Begur Wildlife Sanctuary, Chembra Peak, Edakkal Caves, Meenmutty Falls, Kanthapara Falls, Soochipara Falls&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>TOLL,
+PARKING EXTRA</t>
+  </si>
+  <si>
     <t>TOLL, 
-PARKING EXRA</t>
-  </si>
-  <si>
-    <t>COIMBATORE - MUNNAR - COIMBATORE</t>
-  </si>
-  <si>
-    <t>OOTY - MYSORE - OOTY</t>
-  </si>
-  <si>
-    <t>OOTY- WAYNAD - OOTY</t>
-  </si>
-  <si>
-    <t>MYSORE - OOTY - MYSORE</t>
-  </si>
-  <si>
-    <t>TOLL,
-PARKING EXRA</t>
-  </si>
-  <si>
-    <t>Attraction: Dodabetta Peak, Tea Factory &amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden, Ketty Valley view (view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park, Tea Garden, Nilgiri Mountain Toy Train.</t>
-  </si>
-  <si>
-    <t>Attraction: Echo Point, Elephant Lake, Rose Garden, Mattupetty Dam, Chinnar Wildlife Sanctuary, Top Station, Tata Tea Museum, Rajamalai WildLife Sanctuary, Power House Falls</t>
-  </si>
-  <si>
-    <t>Attraction: Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palace</t>
-  </si>
-  <si>
-    <t>Attraction: Ananthanatha Swami temple, Muthanga Wildlife Sanctuary, Banasura dam, Begur Wildlife Sanctuary, Chembra Peak, Edakkal Caves, Meenmutty Falls, Kanthapara Falls, Soochipara Falls</t>
-  </si>
-  <si>
-    <t>Attraction: Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)</t>
+PARKING EXTRA</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2684ACE0-16CC-47B5-8257-3C1B8E3F3A60}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -744,22 +744,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F882EC7E-06B6-4C35-8B71-7E0DB3F363DA}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
     </row>
     <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1080,7 +1080,273 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5500</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5800</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6500</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6800</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7200</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7500</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7800</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10">
+        <v>8000</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FE305-3B84-4199-988D-46C17647D60F}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1371,7 @@
     </row>
     <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1124,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1141,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -1162,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="6">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -1182,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -1201,7 +1467,9 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>7200</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -1240,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -1260,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>7200</v>
+        <v>8300</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -1280,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="6">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -1300,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6">
-        <v>7800</v>
+        <v>8800</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
@@ -1312,23 +1580,63 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10">
-        <v>8000</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="6">
+        <v>9500</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>11500</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1341,12 +1649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553FE305-3B84-4199-988D-46C17647D60F}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E75FC2-19DE-4BC8-B320-0E1A3DA0BC43}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1679,7 @@
     </row>
     <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1390,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1407,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="6">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -1428,7 +1736,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="6">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -1448,7 +1756,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>7000</v>
+        <v>6300</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
@@ -1468,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="6">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>8</v>
@@ -1488,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>7300</v>
+        <v>6700</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>8</v>
@@ -1508,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -1528,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>8300</v>
+        <v>7500</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -1548,7 +1856,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="6">
-        <v>8500</v>
+        <v>6900</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -1568,7 +1876,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="6">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>8</v>
@@ -1588,7 +1896,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="6">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
@@ -1608,7 +1916,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="6">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>8</v>
@@ -1628,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="10">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>8</v>
@@ -1649,12 +1957,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E75FC2-19DE-4BC8-B320-0E1A3DA0BC43}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ACA001-DCA0-4245-BE18-99412416B2DD}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,9 +1985,9 @@
       <c r="E1" s="18"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:14" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1698,315 +2006,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5500</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6000</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>6300</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6500</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6">
-        <v>6700</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6900</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6">
-        <v>7500</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6900</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6">
-        <v>7000</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="6">
-        <v>9000</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10">
-        <v>10500</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43ACA001-DCA0-4245-BE18-99412416B2DD}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="28" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
